--- a/DWH_REPORT/Расчёт объёма хранилища.xlsx
+++ b/DWH_REPORT/Расчёт объёма хранилища.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\DWH_REPORT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coursera\Documents\GitHub\DE_Microsoft_AD_security_events\DWH_REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,9 +41,6 @@
     <t>Итого (с 1 сервера за 1 день, Мбайт)</t>
   </si>
   <si>
-    <t>Итого (приблизительно в месяц с 3 серверов, Мбайт)</t>
-  </si>
-  <si>
     <t>Кол-во серверов AD DS (штук)</t>
   </si>
   <si>
@@ -71,7 +68,10 @@
     <t>Домен</t>
   </si>
   <si>
-    <t>NFRN-I</t>
+    <t>Итого (приблизительно, в месяц с 4 серверов, Мбайт)</t>
+  </si>
+  <si>
+    <t>TEST.ORG</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,15 +431,15 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -447,16 +447,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -464,7 +464,7 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -473,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>177.14285714285714</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
         <v>30</v>
       </c>
       <c r="F5" s="3">
         <f>C5*E5*D5</f>
-        <v>15942.857142857141</v>
+        <v>21257.142857142855</v>
       </c>
       <c r="G5" s="3">
         <v>12</v>
       </c>
       <c r="H5" s="4">
         <f>F5*G5</f>
-        <v>191314.28571428568</v>
+        <v>255085.71428571426</v>
       </c>
       <c r="I5" s="4">
         <f>H5/1024</f>
-        <v>186.83035714285711</v>
+        <v>249.10714285714283</v>
       </c>
     </row>
   </sheetData>
